--- a/data_processed/20250729/BTCUSDVOLSURFACE_REGULARIZED_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDVOLSURFACE_REGULARIZED_20250729.xlsx
@@ -6370,7 +6370,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18119,7 +18119,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18264,7 +18264,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -35835,7 +35835,7 @@
       </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -36362,7 +36362,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -36391,7 +36391,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36565,7 +36565,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -38332,7 +38332,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39760,7 +39760,7 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -42850,7 +42850,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -42879,7 +42879,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42966,7 +42966,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250729/BTCUSDVOLSURFACE_REGULARIZED_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDVOLSURFACE_REGULARIZED_20250729.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -33835,7 +33835,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34480,7 +34480,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34509,7 +34509,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34704,7 +34704,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35470,7 +35470,7 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35499,7 +35499,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35586,7 +35586,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35835,7 +35835,7 @@
       </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36159,7 +36159,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36362,7 +36362,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36565,7 +36565,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -36648,7 +36648,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36677,7 +36677,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37526,7 +37526,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37663,7 +37663,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37721,7 +37721,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37750,7 +37750,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -38564,7 +38564,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38647,7 +38647,7 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38676,7 +38676,7 @@
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39358,7 +39358,7 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39445,7 +39445,7 @@
       </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39474,7 +39474,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39532,7 +39532,7 @@
       </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39590,7 +39590,7 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39731,7 +39731,7 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39760,7 +39760,7 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -42821,7 +42821,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42850,7 +42850,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CA,CS,BF</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -42908,7 +42908,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46127,7 +46127,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46214,7 +46214,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47034,7 +47034,7 @@
       </c>
       <c r="G1829" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
